--- a/Code_python/Data/extraction/EURUSD.xlsx
+++ b/Code_python/Data/extraction/EURUSD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4401" uniqueCount="4401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="4402">
   <si>
     <t>2003-12-01</t>
   </si>
@@ -13217,6 +13217,9 @@
   </si>
   <si>
     <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
   </si>
 </sst>
 </file>
@@ -13574,7 +13577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4402"/>
+  <dimension ref="A1:B4403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -48796,6 +48799,14 @@
         <v>1.18674647808075</v>
       </c>
     </row>
+    <row r="4403" spans="1:2">
+      <c r="A4403" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B4403">
+        <v>1.186380386352539</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Code_python/Data/extraction/EURUSD.xlsx
+++ b/Code_python/Data/extraction/EURUSD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="4402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="4437">
   <si>
     <t>2003-12-01</t>
   </si>
@@ -13220,6 +13220,111 @@
   </si>
   <si>
     <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
   </si>
 </sst>
 </file>
@@ -13577,7 +13682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4403"/>
+  <dimension ref="A1:B4438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -48804,7 +48909,287 @@
         <v>4401</v>
       </c>
       <c r="B4403">
-        <v>1.186380386352539</v>
+        <v>1.186535239219666</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:2">
+      <c r="A4404" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B4404">
+        <v>1.184180378913879</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:2">
+      <c r="A4405" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B4405">
+        <v>1.190051198005676</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:2">
+      <c r="A4406" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B4406">
+        <v>1.191753029823303</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:2">
+      <c r="A4407" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B4407">
+        <v>1.191185235977173</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:2">
+      <c r="A4408" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B4408">
+        <v>1.197074294090271</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:2">
+      <c r="A4409" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B4409">
+        <v>1.19377326965332</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:2">
+      <c r="A4410" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B4410">
+        <v>1.20698606967926</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:2">
+      <c r="A4411" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B4411">
+        <v>1.211343050003052</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:2">
+      <c r="A4412" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B4412">
+        <v>1.214535474777222</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:2">
+      <c r="A4413" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B4413">
+        <v>1.212062478065491</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:2">
+      <c r="A4414" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B4414">
+        <v>1.210946917533875</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:2">
+      <c r="A4415" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B4415">
+        <v>1.210990905761719</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:2">
+      <c r="A4416" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B4416">
+        <v>1.208167195320129</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:2">
+      <c r="A4417" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B4417">
+        <v>1.214343786239624</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:2">
+      <c r="A4418" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B4418">
+        <v>1.213356614112854</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:2">
+      <c r="A4419" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B4419">
+        <v>1.214874863624573</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:2">
+      <c r="A4420" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B4420">
+        <v>1.215376853942871</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:2">
+      <c r="A4421" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B4421">
+        <v>1.219705581665039</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:2">
+      <c r="A4422" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B4422">
+        <v>1.22619640827179</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:2">
+      <c r="A4423" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B4423">
+        <v>1.221060872077942</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:2">
+      <c r="A4424" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B4424">
+        <v>1.223840475082397</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:2">
+      <c r="A4425" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B4425">
+        <v>1.21859085559845</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:2">
+      <c r="A4426" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B4426">
+        <v>1.219393253326416</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:2">
+      <c r="A4427" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B4427">
+        <v>1.218472003936768</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:2">
+      <c r="A4428" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B4428">
+        <v>1.220703125</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:2">
+      <c r="A4429" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B4429">
+        <v>1.222000956535339</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:2">
+      <c r="A4430" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B4430">
+        <v>1.225324988365173</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:2">
+      <c r="A4431" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B4431">
+        <v>1.229906439781189</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:2">
+      <c r="A4432" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B4432">
+        <v>1.217285394668579</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:2">
+      <c r="A4433" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B4433">
+        <v>1.224904775619507</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:2">
+      <c r="A4434" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B4434">
+        <v>1.225295066833496</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:2">
+      <c r="A4435" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B4435">
+        <v>1.22986102104187</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:2">
+      <c r="A4436" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B4436">
+        <v>1.233775854110718</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:2">
+      <c r="A4437" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B4437">
+        <v>1.226873397827148</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:2">
+      <c r="A4438" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B4438">
+        <v>1.222643375396729</v>
       </c>
     </row>
   </sheetData>
